--- a/indextrends/amt/Deleting Apps/combined.xlsx
+++ b/indextrends/amt/Deleting Apps/combined.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaowns/Documents/PrivacySearchQueries/indextrends/amt/Deleting Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShaownS/Documents/PrivacySearchQueries/indextrends/amt/Deleting Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2671,6 +2671,11 @@
       <c r="I74">
         <f>SUM(B74:H74)</f>
         <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12180,7 +12185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
